--- a/Unity/Assets/Config/Excel/Datas/StageConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StageConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3C475-EA0A-404F-887A-C0B3C535BDF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B17E0-4E3F-4D3F-98AC-3D062337F942}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Unity/Assets/Config/Excel/Datas/StageConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StageConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B17E0-4E3F-4D3F-98AC-3D062337F942}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A824C0C-28C4-4C78-A997-17C0B4AC4AE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>描述</t>
   </si>
@@ -82,6 +82,38 @@
   </si>
   <si>
     <t>6,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetScore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标分数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoldTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +476,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,6 +485,9 @@
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -471,9 +506,15 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
@@ -493,9 +534,15 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
@@ -515,9 +562,15 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -533,6 +586,15 @@
       </c>
       <c r="E4" t="s">
         <v>15</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>8000</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/StageConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StageConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A824C0C-28C4-4C78-A997-17C0B4AC4AE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86090266-86E6-441A-8482-1F1EC89964A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>描述</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>旋转时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,6 +609,89 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>8000</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/Datas/StageConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StageConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86090266-86E6-441A-8482-1F1EC89964A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFB73D3-B683-44CA-BE76-7C984BD0EEA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="H5">
         <v>15</v>
